--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1812.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1812.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.181540884972773</v>
+        <v>0.9407587051391602</v>
       </c>
       <c r="B1">
-        <v>2.31619561921906</v>
+        <v>1.532688498497009</v>
       </c>
       <c r="C1">
-        <v>3.411186628300103</v>
+        <v>5.892971515655518</v>
       </c>
       <c r="D1">
-        <v>3.356433861486436</v>
+        <v>1.741750717163086</v>
       </c>
       <c r="E1">
-        <v>1.156414118505795</v>
+        <v>1.071824789047241</v>
       </c>
     </row>
   </sheetData>
